--- a/Hardware Information/Wiring Information.xlsx
+++ b/Hardware Information/Wiring Information.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="20">
   <si>
     <t xml:space="preserve">Each cell in this sheet represents a 'node' or 'edge'. The 'edges' are shaded and represent connection methods, while 'nodes' are unshaded and represent what needs to be connected. </t>
   </si>
@@ -84,6 +84,9 @@
   </si>
   <si>
     <t>"SDA" on RHS of LEMS Shield</t>
+  </si>
+  <si>
+    <t>MLX90614:</t>
   </si>
 </sst>
 </file>
@@ -133,10 +136,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -414,10 +417,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N10"/>
+  <dimension ref="A1:N16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -429,42 +432,42 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3"/>
-      <c r="I1" s="3"/>
-      <c r="J1" s="3"/>
-      <c r="K1" s="3"/>
-      <c r="L1" s="3"/>
-      <c r="M1" s="3"/>
-      <c r="N1" s="3"/>
+      <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
+      <c r="G1" s="4"/>
+      <c r="H1" s="4"/>
+      <c r="I1" s="4"/>
+      <c r="J1" s="4"/>
+      <c r="K1" s="4"/>
+      <c r="L1" s="4"/>
+      <c r="M1" s="4"/>
+      <c r="N1" s="4"/>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="3"/>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
+      <c r="B2" s="4"/>
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="3"/>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
-      <c r="F3" s="3"/>
+      <c r="B3" s="4"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4"/>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A4" s="2"/>
@@ -495,7 +498,7 @@
       <c r="D7" t="s">
         <v>6</v>
       </c>
-      <c r="E7" s="4" t="s">
+      <c r="E7" s="3" t="s">
         <v>14</v>
       </c>
     </row>
@@ -512,7 +515,7 @@
       <c r="D8" t="s">
         <v>6</v>
       </c>
-      <c r="E8" s="4" t="s">
+      <c r="E8" s="3" t="s">
         <v>16</v>
       </c>
     </row>
@@ -547,6 +550,82 @@
         <v>6</v>
       </c>
       <c r="E10" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A12" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B12" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>8</v>
+      </c>
+      <c r="B13" t="s">
+        <v>2</v>
+      </c>
+      <c r="C13" t="s">
+        <v>5</v>
+      </c>
+      <c r="D13" t="s">
+        <v>6</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>7</v>
+      </c>
+      <c r="B14" t="s">
+        <v>2</v>
+      </c>
+      <c r="C14" t="s">
+        <v>9</v>
+      </c>
+      <c r="D14" t="s">
+        <v>6</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>10</v>
+      </c>
+      <c r="B15" t="s">
+        <v>2</v>
+      </c>
+      <c r="C15" t="s">
+        <v>11</v>
+      </c>
+      <c r="D15" t="s">
+        <v>6</v>
+      </c>
+      <c r="E15" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>12</v>
+      </c>
+      <c r="B16" t="s">
+        <v>2</v>
+      </c>
+      <c r="C16" t="s">
+        <v>13</v>
+      </c>
+      <c r="D16" t="s">
+        <v>6</v>
+      </c>
+      <c r="E16" t="s">
         <v>18</v>
       </c>
     </row>

--- a/Hardware Information/Wiring Information.xlsx
+++ b/Hardware Information/Wiring Information.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="46">
   <si>
     <t xml:space="preserve">Each cell in this sheet represents a 'node' or 'edge'. The 'edges' are shaded and represent connection methods, while 'nodes' are unshaded and represent what needs to be connected. </t>
   </si>
@@ -87,6 +87,84 @@
   </si>
   <si>
     <t>MLX90614:</t>
+  </si>
+  <si>
+    <t>Li200R:</t>
+  </si>
+  <si>
+    <t>No intermediate wire necessary</t>
+  </si>
+  <si>
+    <t>Davis Anemometer:</t>
+  </si>
+  <si>
+    <t>Black</t>
+  </si>
+  <si>
+    <t>Red</t>
+  </si>
+  <si>
+    <t>Green</t>
+  </si>
+  <si>
+    <t>Yellow</t>
+  </si>
+  <si>
+    <t>"WIND SPD" on RHS of LEMS Shield</t>
+  </si>
+  <si>
+    <t>"WIND GND" on RHS of LEMS Shield</t>
+  </si>
+  <si>
+    <t>"WIND DIR" on RHS of LEMS Shield</t>
+  </si>
+  <si>
+    <t>"WIND POW" on RHS of LEMS Shield</t>
+  </si>
+  <si>
+    <t>Upper Soil:</t>
+  </si>
+  <si>
+    <t>Lower Soil:</t>
+  </si>
+  <si>
+    <t>Shield</t>
+  </si>
+  <si>
+    <t>White</t>
+  </si>
+  <si>
+    <t>"U5TM GND" on LHS of LEMS Shield</t>
+  </si>
+  <si>
+    <t>"U5TM DATA" on LHS of LEMS Shield</t>
+  </si>
+  <si>
+    <t>"U5TM POW" on LHS of LEMS Shield</t>
+  </si>
+  <si>
+    <t>"L5TM GND" on RHS of LEMS Shield</t>
+  </si>
+  <si>
+    <t>"L5TM DATA" on RHS of LEMS Shield</t>
+  </si>
+  <si>
+    <t>"L5TM POW" on RHS of LEMS Shield</t>
+  </si>
+  <si>
+    <t>Blue</t>
+  </si>
+  <si>
+    <t>"LI+" on LHS of LEMS Shield</t>
+  </si>
+  <si>
+    <t>Brown+Shield</t>
+  </si>
+  <si>
+    <t>"LI-" on LHS of LEMS Shield</t>
+  </si>
+  <si>
+    <t>No intermediate wire necessary. Note: Different Li200s have different wiring</t>
   </si>
 </sst>
 </file>
@@ -417,14 +495,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N16"/>
+  <dimension ref="A1:N36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
+    <col min="1" max="1" width="17.6640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="42.1640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="14.1640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11.5" customWidth="1"/>
@@ -629,6 +708,170 @@
         <v>18</v>
       </c>
     </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A18" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B18" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>41</v>
+      </c>
+      <c r="B19" t="s">
+        <v>6</v>
+      </c>
+      <c r="C19" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>43</v>
+      </c>
+      <c r="B20" t="s">
+        <v>6</v>
+      </c>
+      <c r="C20" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A22" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B22" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>23</v>
+      </c>
+      <c r="B23" t="s">
+        <v>6</v>
+      </c>
+      <c r="C23" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" t="s">
+        <v>6</v>
+      </c>
+      <c r="C24" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>25</v>
+      </c>
+      <c r="B25" t="s">
+        <v>6</v>
+      </c>
+      <c r="C25" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>26</v>
+      </c>
+      <c r="B26" t="s">
+        <v>6</v>
+      </c>
+      <c r="C26" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A28" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B28" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>33</v>
+      </c>
+      <c r="B29" t="s">
+        <v>6</v>
+      </c>
+      <c r="C29" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>24</v>
+      </c>
+      <c r="B30" t="s">
+        <v>6</v>
+      </c>
+      <c r="C30" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>34</v>
+      </c>
+      <c r="B31" t="s">
+        <v>6</v>
+      </c>
+      <c r="C31" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A33" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B33" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>33</v>
+      </c>
+      <c r="B34" t="s">
+        <v>6</v>
+      </c>
+      <c r="C34" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>24</v>
+      </c>
+      <c r="B35" t="s">
+        <v>6</v>
+      </c>
+      <c r="C35" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>34</v>
+      </c>
+      <c r="B36" t="s">
+        <v>6</v>
+      </c>
+      <c r="C36" t="s">
+        <v>40</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="A1:N1"/>

--- a/Hardware Information/Wiring Information.xlsx
+++ b/Hardware Information/Wiring Information.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="50">
   <si>
     <t xml:space="preserve">Each cell in this sheet represents a 'node' or 'edge'. The 'edges' are shaded and represent connection methods, while 'nodes' are unshaded and represent what needs to be connected. </t>
   </si>
@@ -164,7 +164,19 @@
     <t>"LI-" on LHS of LEMS Shield</t>
   </si>
   <si>
-    <t>No intermediate wire necessary. Note: Different Li200s have different wiring</t>
+    <t>No intermediate wire necessary. Note: Different Li200s have different wiring. The two configurations are below</t>
+  </si>
+  <si>
+    <t>OR</t>
+  </si>
+  <si>
+    <t>"Li+" on LHS of LEMS Shield</t>
+  </si>
+  <si>
+    <t>Copper</t>
+  </si>
+  <si>
+    <t>"Li-" on LHS of LEMS Shield</t>
   </si>
 </sst>
 </file>
@@ -495,10 +507,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N36"/>
+  <dimension ref="A1:N39"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="A24" sqref="A24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -738,137 +750,164 @@
         <v>44</v>
       </c>
     </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A21" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A22" s="1" t="s">
-        <v>22</v>
+      <c r="A22" t="s">
+        <v>33</v>
       </c>
       <c r="B22" t="s">
-        <v>21</v>
+        <v>6</v>
+      </c>
+      <c r="C22" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>23</v>
+        <v>48</v>
       </c>
       <c r="B23" t="s">
         <v>6</v>
       </c>
       <c r="C23" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A24" t="s">
-        <v>24</v>
-      </c>
-      <c r="B24" t="s">
-        <v>6</v>
-      </c>
-      <c r="C24" t="s">
-        <v>28</v>
+        <v>49</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A25" t="s">
-        <v>25</v>
+      <c r="A25" s="1" t="s">
+        <v>22</v>
       </c>
       <c r="B25" t="s">
-        <v>6</v>
-      </c>
-      <c r="C25" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B26" t="s">
         <v>6</v>
       </c>
       <c r="C26" t="s">
-        <v>30</v>
+        <v>27</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>24</v>
+      </c>
+      <c r="B27" t="s">
+        <v>6</v>
+      </c>
+      <c r="C27" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A28" s="1" t="s">
-        <v>31</v>
+      <c r="A28" t="s">
+        <v>25</v>
       </c>
       <c r="B28" t="s">
-        <v>21</v>
+        <v>6</v>
+      </c>
+      <c r="C28" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
+        <v>26</v>
+      </c>
+      <c r="B29" t="s">
+        <v>6</v>
+      </c>
+      <c r="C29" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A31" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B31" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
         <v>33</v>
       </c>
-      <c r="B29" t="s">
-        <v>6</v>
-      </c>
-      <c r="C29" t="s">
+      <c r="B32" t="s">
+        <v>6</v>
+      </c>
+      <c r="C32" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A30" t="s">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
         <v>24</v>
       </c>
-      <c r="B30" t="s">
-        <v>6</v>
-      </c>
-      <c r="C30" t="s">
+      <c r="B33" t="s">
+        <v>6</v>
+      </c>
+      <c r="C33" t="s">
         <v>36</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A31" t="s">
-        <v>34</v>
-      </c>
-      <c r="B31" t="s">
-        <v>6</v>
-      </c>
-      <c r="C31" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A33" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="B33" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
+        <v>34</v>
+      </c>
+      <c r="B34" t="s">
+        <v>6</v>
+      </c>
+      <c r="C34" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A36" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B36" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
         <v>33</v>
       </c>
-      <c r="B34" t="s">
-        <v>6</v>
-      </c>
-      <c r="C34" t="s">
+      <c r="B37" t="s">
+        <v>6</v>
+      </c>
+      <c r="C37" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A35" t="s">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
         <v>24</v>
       </c>
-      <c r="B35" t="s">
-        <v>6</v>
-      </c>
-      <c r="C35" t="s">
+      <c r="B38" t="s">
+        <v>6</v>
+      </c>
+      <c r="C38" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A36" t="s">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
         <v>34</v>
       </c>
-      <c r="B36" t="s">
-        <v>6</v>
-      </c>
-      <c r="C36" t="s">
+      <c r="B39" t="s">
+        <v>6</v>
+      </c>
+      <c r="C39" t="s">
         <v>40</v>
       </c>
     </row>

--- a/Hardware Information/Wiring Information.xlsx
+++ b/Hardware Information/Wiring Information.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27610"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28702"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -27,10 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="50">
-  <si>
-    <t xml:space="preserve">Each cell in this sheet represents a 'node' or 'edge'. The 'edges' are shaded and represent connection methods, while 'nodes' are unshaded and represent what needs to be connected. </t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="54">
   <si>
     <t>Connections are to be made from node to node going left to right via edges</t>
   </si>
@@ -177,13 +174,28 @@
   </si>
   <si>
     <t>"Li-" on LHS of LEMS Shield</t>
+  </si>
+  <si>
+    <t>DS2 Anemometer:</t>
+  </si>
+  <si>
+    <t>No itermediate wire necessary</t>
+  </si>
+  <si>
+    <t>"SONIC DATA" on LHS of LEMS Shield</t>
+  </si>
+  <si>
+    <t>"5V" on LHS of LEMS Shield</t>
+  </si>
+  <si>
+    <t>"GND" on LHS of LEMS Shield</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -193,6 +205,14 @@
     </font>
     <font>
       <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -220,13 +240,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -507,25 +529,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N39"/>
+  <dimension ref="A1:N44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="A24" sqref="A24"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="C43" sqref="C43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="17.6640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="42.1640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="31" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11.5" customWidth="1"/>
     <col min="5" max="5" width="19.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A1" s="4" t="s">
-        <v>0</v>
-      </c>
+      <c r="A1" s="4"/>
       <c r="B1" s="4"/>
       <c r="C1" s="4"/>
       <c r="D1" s="4"/>
@@ -541,24 +561,24 @@
       <c r="N1" s="4"/>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A2" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="4"/>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4"/>
+      <c r="A2" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="6"/>
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A3" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B3" s="4"/>
-      <c r="C3" s="4"/>
-      <c r="D3" s="4"/>
-      <c r="E3" s="4"/>
-      <c r="F3" s="4"/>
+      <c r="A3" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" s="6"/>
+      <c r="C3" s="6"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="6"/>
+      <c r="F3" s="6"/>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A4" s="2"/>
@@ -570,350 +590,390 @@
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B6" t="s">
         <v>3</v>
-      </c>
-      <c r="B6" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C7" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D7" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C8" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D8" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9" t="s">
+        <v>1</v>
+      </c>
+      <c r="C9" t="s">
         <v>10</v>
       </c>
-      <c r="B9" t="s">
-        <v>2</v>
-      </c>
-      <c r="C9" t="s">
-        <v>11</v>
-      </c>
       <c r="D9" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10" t="s">
+        <v>1</v>
+      </c>
+      <c r="C10" t="s">
         <v>12</v>
       </c>
-      <c r="B10" t="s">
-        <v>2</v>
-      </c>
-      <c r="C10" t="s">
-        <v>13</v>
-      </c>
       <c r="D10" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E10" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B12" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B13" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C13" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D13" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B14" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C14" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D14" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
+        <v>9</v>
+      </c>
+      <c r="B15" t="s">
+        <v>1</v>
+      </c>
+      <c r="C15" t="s">
         <v>10</v>
       </c>
-      <c r="B15" t="s">
-        <v>2</v>
-      </c>
-      <c r="C15" t="s">
-        <v>11</v>
-      </c>
       <c r="D15" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
+        <v>11</v>
+      </c>
+      <c r="B16" t="s">
+        <v>1</v>
+      </c>
+      <c r="C16" t="s">
         <v>12</v>
       </c>
-      <c r="B16" t="s">
-        <v>2</v>
-      </c>
-      <c r="C16" t="s">
-        <v>13</v>
-      </c>
       <c r="D16" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E16" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B18" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
+        <v>40</v>
+      </c>
+      <c r="B19" t="s">
+        <v>5</v>
+      </c>
+      <c r="C19" t="s">
         <v>41</v>
-      </c>
-      <c r="B19" t="s">
-        <v>6</v>
-      </c>
-      <c r="C19" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
+        <v>42</v>
+      </c>
+      <c r="B20" t="s">
+        <v>5</v>
+      </c>
+      <c r="C20" t="s">
         <v>43</v>
       </c>
-      <c r="B20" t="s">
-        <v>6</v>
-      </c>
-      <c r="C20" t="s">
-        <v>44</v>
-      </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A21" s="1" t="s">
-        <v>46</v>
+      <c r="A21" s="5" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B22" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C22" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
+        <v>47</v>
+      </c>
+      <c r="B23" t="s">
+        <v>5</v>
+      </c>
+      <c r="C23" t="s">
         <v>48</v>
-      </c>
-      <c r="B23" t="s">
-        <v>6</v>
-      </c>
-      <c r="C23" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B25" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B26" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C26" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B27" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C27" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B28" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C28" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B29" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C29" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B32" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C32" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B33" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C33" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C34" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B36" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B37" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C37" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B38" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C38" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B39" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C39" t="s">
-        <v>40</v>
+        <v>39</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A41" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B41" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>32</v>
+      </c>
+      <c r="B42" t="s">
+        <v>5</v>
+      </c>
+      <c r="C42" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>23</v>
+      </c>
+      <c r="B43" t="s">
+        <v>5</v>
+      </c>
+      <c r="C43" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
+        <v>33</v>
+      </c>
+      <c r="B44" t="s">
+        <v>5</v>
+      </c>
+      <c r="C44" t="s">
+        <v>52</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="A1:N1"/>
+  <mergeCells count="2">
     <mergeCell ref="A2:F2"/>
     <mergeCell ref="A3:F3"/>
   </mergeCells>

--- a/Hardware Information/Wiring Information.xlsx
+++ b/Hardware Information/Wiring Information.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28702"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10613"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Nipun/Documents/Arduino/LEMSv2/Hardware Information/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{6D6A225F-8957-5241-86BA-134E9BFCCC10}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15460" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15540" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="150000" concurrentCalc="0"/>
+  <calcPr calcId="150000"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="58">
   <si>
     <t>Connections are to be made from node to node going left to right via edges</t>
   </si>
@@ -119,12 +120,6 @@
     <t>"WIND POW" on RHS of LEMS Shield</t>
   </si>
   <si>
-    <t>Upper Soil:</t>
-  </si>
-  <si>
-    <t>Lower Soil:</t>
-  </si>
-  <si>
     <t>Shield</t>
   </si>
   <si>
@@ -176,12 +171,6 @@
     <t>"Li-" on LHS of LEMS Shield</t>
   </si>
   <si>
-    <t>DS2 Anemometer:</t>
-  </si>
-  <si>
-    <t>No itermediate wire necessary</t>
-  </si>
-  <si>
     <t>"SONIC DATA" on LHS of LEMS Shield</t>
   </si>
   <si>
@@ -189,12 +178,36 @@
   </si>
   <si>
     <t>"GND" on LHS of LEMS Shield</t>
+  </si>
+  <si>
+    <t>Brown</t>
+  </si>
+  <si>
+    <t>Bare/Shield</t>
+  </si>
+  <si>
+    <t>Orange</t>
+  </si>
+  <si>
+    <t>No intermediate wire necessary. Note: Two sensors present, either wiring configuration possible</t>
+  </si>
+  <si>
+    <t>No itermediate wire necessary. Note: This anemometer changed in 2018, so there are two names and two different wiring schemes  (as seen below)</t>
+  </si>
+  <si>
+    <t>DS2 Anemometer/Atmos 22 Anemometer:</t>
+  </si>
+  <si>
+    <t>Upper Soil (5TM):</t>
+  </si>
+  <si>
+    <t>Lower Soil (5TM):</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -261,6 +274,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -528,16 +544,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N44"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:N56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="C43" sqref="C43"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="A41" sqref="A41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="17.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="37.1640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="42.1640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="31" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11.5" customWidth="1"/>
@@ -745,56 +761,56 @@
         <v>19</v>
       </c>
       <c r="B18" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B19" t="s">
         <v>5</v>
       </c>
       <c r="C19" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B20" t="s">
         <v>5</v>
       </c>
       <c r="C20" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" s="5" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B22" t="s">
         <v>5</v>
       </c>
       <c r="C22" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B23" t="s">
         <v>5</v>
       </c>
       <c r="C23" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.2">
@@ -851,21 +867,21 @@
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
-        <v>30</v>
+        <v>56</v>
       </c>
       <c r="B31" t="s">
-        <v>20</v>
+        <v>53</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
+        <v>51</v>
+      </c>
+      <c r="B32" t="s">
+        <v>5</v>
+      </c>
+      <c r="C32" t="s">
         <v>32</v>
-      </c>
-      <c r="B32" t="s">
-        <v>5</v>
-      </c>
-      <c r="C32" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.2">
@@ -876,100 +892,214 @@
         <v>5</v>
       </c>
       <c r="C33" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B34" t="s">
         <v>5</v>
       </c>
       <c r="C34" t="s">
-        <v>36</v>
+        <v>34</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A35" s="5" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A36" s="1" t="s">
-        <v>31</v>
+      <c r="A36" t="s">
+        <v>51</v>
       </c>
       <c r="B36" t="s">
-        <v>20</v>
+        <v>5</v>
+      </c>
+      <c r="C36" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>32</v>
+        <v>52</v>
       </c>
       <c r="B37" t="s">
         <v>5</v>
       </c>
       <c r="C37" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>23</v>
+        <v>50</v>
       </c>
       <c r="B38" t="s">
         <v>5</v>
       </c>
       <c r="C38" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A39" t="s">
-        <v>33</v>
-      </c>
-      <c r="B39" t="s">
-        <v>5</v>
-      </c>
-      <c r="C39" t="s">
-        <v>39</v>
+        <v>34</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A40" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B40" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A41" s="1" t="s">
-        <v>49</v>
+      <c r="A41" t="s">
+        <v>51</v>
       </c>
       <c r="B41" t="s">
-        <v>50</v>
+        <v>5</v>
+      </c>
+      <c r="C41" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="B42" t="s">
         <v>5</v>
       </c>
       <c r="C42" t="s">
-        <v>53</v>
+        <v>36</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
+        <v>31</v>
+      </c>
+      <c r="B43" t="s">
+        <v>5</v>
+      </c>
+      <c r="C43" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A44" s="5" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
+        <v>51</v>
+      </c>
+      <c r="B45" t="s">
+        <v>5</v>
+      </c>
+      <c r="C45" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
+        <v>52</v>
+      </c>
+      <c r="B46" t="s">
+        <v>5</v>
+      </c>
+      <c r="C46" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
+        <v>50</v>
+      </c>
+      <c r="B47" t="s">
+        <v>5</v>
+      </c>
+      <c r="C47" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A49" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B49" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A50" t="s">
+        <v>51</v>
+      </c>
+      <c r="B50" t="s">
+        <v>5</v>
+      </c>
+      <c r="C50" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A51" t="s">
         <v>23</v>
       </c>
-      <c r="B43" t="s">
-        <v>5</v>
-      </c>
-      <c r="C43" t="s">
+      <c r="B51" t="s">
+        <v>5</v>
+      </c>
+      <c r="C51" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A52" t="s">
+        <v>31</v>
+      </c>
+      <c r="B52" t="s">
+        <v>5</v>
+      </c>
+      <c r="C52" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A53" s="5" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A54" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A44" t="s">
-        <v>33</v>
-      </c>
-      <c r="B44" t="s">
-        <v>5</v>
-      </c>
-      <c r="C44" t="s">
+      <c r="B54" t="s">
+        <v>5</v>
+      </c>
+      <c r="C54" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A55" t="s">
         <v>52</v>
+      </c>
+      <c r="B55" t="s">
+        <v>5</v>
+      </c>
+      <c r="C55" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A56" t="s">
+        <v>50</v>
+      </c>
+      <c r="B56" t="s">
+        <v>5</v>
+      </c>
+      <c r="C56" t="s">
+        <v>48</v>
       </c>
     </row>
   </sheetData>
@@ -978,5 +1108,6 @@
     <mergeCell ref="A3:F3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>